--- a/data/trans_dic/P62A$otras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001705175317181173</v>
+        <v>0.001705556093071629</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02455376222869973</v>
+        <v>0.02556273728829577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02399131866222722</v>
+        <v>0.02284031813847434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2509414618886348</v>
+        <v>0.2507847881188624</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02214560828770127</v>
+        <v>0.02150941640743744</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04716113598346761</v>
+        <v>0.04380323080017137</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08358234929194207</v>
+        <v>0.08307788124555786</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1331508099867238</v>
+        <v>0.1338307633263047</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01291963148463266</v>
+        <v>0.01230650937963654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03914814462777089</v>
+        <v>0.03927854638530002</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05854547860821923</v>
+        <v>0.05910511095449293</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1900776492232881</v>
+        <v>0.1936023585120323</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01549945727026299</v>
+        <v>0.01551958064155437</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06413408417288025</v>
+        <v>0.06167703899737713</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06532080896627149</v>
+        <v>0.06357327608043646</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3385954894990406</v>
+        <v>0.339206786617524</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05696666427334086</v>
+        <v>0.05636143808209421</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09205662242327534</v>
+        <v>0.08986945873223</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.149215134593876</v>
+        <v>0.1486172347330988</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1884026336681804</v>
+        <v>0.1858811401489351</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0310912569464532</v>
+        <v>0.03168627837297491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07110672354905016</v>
+        <v>0.06895758721502308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09752661984319901</v>
+        <v>0.09633176489814643</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2450263041375108</v>
+        <v>0.2443422575964517</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.09451309986646451</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3355575437553079</v>
+        <v>0.3355575437553081</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1214760500356679</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09338964397240672</v>
+        <v>0.0907135385459694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06593317322421742</v>
+        <v>0.06411262917581864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2965627099677551</v>
+        <v>0.2941433856100754</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05624728385020676</v>
+        <v>0.05590819689598078</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2512070116242426</v>
+        <v>0.2441150828516303</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1511428417217038</v>
+        <v>0.1498292683411047</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2386384010152214</v>
+        <v>0.2366289036224425</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02410178190170907</v>
+        <v>0.02457981582511844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1625121112324372</v>
+        <v>0.163285432689451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.10928170891294</v>
+        <v>0.1104065379457319</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.282719454073911</v>
+        <v>0.2842424975689715</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04355163818303559</v>
+        <v>0.04321464543812947</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.182170743411442</v>
+        <v>0.1714297343599522</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.128596026559846</v>
+        <v>0.1247524342278737</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3804358514257183</v>
+        <v>0.3802433857007092</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2207645798771733</v>
+        <v>0.2062043444167583</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4013140732313472</v>
+        <v>0.4003172052483347</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2603871319207795</v>
+        <v>0.253041775380032</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3233941561307665</v>
+        <v>0.3198763347414777</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08043772092444358</v>
+        <v>0.08624464715892489</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2460439766307901</v>
+        <v>0.2487667651942193</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1643577575800688</v>
+        <v>0.1661630826711806</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3428916870951172</v>
+        <v>0.34139353063663</v>
       </c>
     </row>
     <row r="10">
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01516115489671415</v>
+        <v>0.01523017453508303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1868111588871011</v>
+        <v>0.1916469276848964</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07770047205097519</v>
+        <v>0.06500008681306803</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08292713175994758</v>
+        <v>0.07451346012231776</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1545368350750426</v>
+        <v>0.153212946781973</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04039107441570677</v>
+        <v>0.03855471903581598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06049041669940314</v>
+        <v>0.0565120020902435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1933556772552144</v>
+        <v>0.1960769170173499</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07405293273713032</v>
+        <v>0.07705861042820165</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1104119006486469</v>
+        <v>0.1134905664000363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1592831105633131</v>
+        <v>0.1649280269648746</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3343719898781856</v>
+        <v>0.3352364365578968</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.124998656639492</v>
+        <v>0.100345378101276</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3439346729092131</v>
+        <v>0.3448995700574168</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.287952212380398</v>
+        <v>0.280420169838011</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.302656006198817</v>
+        <v>0.3011047645460652</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0652938222346344</v>
+        <v>0.05834019566586047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1861337886696463</v>
+        <v>0.1736287316066059</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1809980385406505</v>
+        <v>0.1701364576171168</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.292718725874985</v>
+        <v>0.2983030796221266</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1020917501258151</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2617631500301289</v>
+        <v>0.261763150030129</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05130679232489998</v>
+        <v>0.05241837279916393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05007283568904781</v>
+        <v>0.0509876446026236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2823725218297097</v>
+        <v>0.2820779809455393</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1044621474856294</v>
+        <v>0.1071987942995109</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1208894419295895</v>
+        <v>0.1222735021397932</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1879068112135616</v>
+        <v>0.1873197828290063</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08160413921186399</v>
+        <v>0.08219060456828023</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08790159868293755</v>
+        <v>0.08704737618877867</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2462694277769026</v>
+        <v>0.2432750964870247</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08838316165926975</v>
+        <v>0.08812191991919406</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08400371813488468</v>
+        <v>0.08331247888336737</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3345550995939713</v>
+        <v>0.3384976702714703</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1580219322624597</v>
+        <v>0.1559948027252661</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1735076585179122</v>
+        <v>0.1773565514975089</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2328838342204164</v>
+        <v>0.2327059957839329</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1135627125899495</v>
+        <v>0.1127769243680705</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1199541152115576</v>
+        <v>0.1169398817150704</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2806700759489096</v>
+        <v>0.2797253689637793</v>
       </c>
     </row>
     <row r="16">
@@ -1466,37 +1466,37 @@
         <v>871</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13480</v>
+        <v>14034</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10568</v>
+        <v>10061</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>80500</v>
+        <v>80450</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9962</v>
+        <v>9676</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25314</v>
+        <v>23511</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35563</v>
+        <v>35348</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54734</v>
+        <v>55014</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12408</v>
+        <v>11820</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>42505</v>
+        <v>42647</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>50698</v>
+        <v>51183</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>139110</v>
+        <v>141690</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7914</v>
+        <v>7924</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35210</v>
+        <v>33861</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28772</v>
+        <v>28003</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>108618</v>
+        <v>108814</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25627</v>
+        <v>25355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>49411</v>
+        <v>48237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>63489</v>
+        <v>63234</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>77446</v>
+        <v>76410</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29861</v>
+        <v>30432</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>77204</v>
+        <v>74871</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>84454</v>
+        <v>83420</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>179325</v>
+        <v>178824</v>
       </c>
     </row>
     <row r="8">
@@ -1646,37 +1646,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>25724</v>
+        <v>24987</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25552</v>
+        <v>24846</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>126860</v>
+        <v>125825</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4781</v>
+        <v>4752</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42869</v>
+        <v>41659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>38898</v>
+        <v>38559</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>72693</v>
+        <v>72080</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6065</v>
+        <v>6185</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>72498</v>
+        <v>72843</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>70475</v>
+        <v>71201</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>207058</v>
+        <v>208174</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7258</v>
+        <v>7201</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50179</v>
+        <v>47221</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49836</v>
+        <v>48346</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>162738</v>
+        <v>162656</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18764</v>
+        <v>17527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>68485</v>
+        <v>68315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>67012</v>
+        <v>65122</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>98510</v>
+        <v>97439</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20241</v>
+        <v>21702</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>109762</v>
+        <v>110976</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>105993</v>
+        <v>107158</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>251127</v>
+        <v>250030</v>
       </c>
     </row>
     <row r="12">
@@ -1829,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22972</v>
+        <v>23567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2764</v>
+        <v>2312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4377</v>
+        <v>3933</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13240</v>
+        <v>13126</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3280</v>
+        <v>3131</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7385</v>
+        <v>6899</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40343</v>
+        <v>40910</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4492</v>
+        <v>4675</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5038</v>
+        <v>5178</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11039</v>
+        <v>11430</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41118</v>
+        <v>41224</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5154</v>
+        <v>4138</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>12236</v>
+        <v>12270</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15197</v>
+        <v>14799</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25930</v>
+        <v>25797</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6653</v>
+        <v>5945</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15114</v>
+        <v>14099</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>22096</v>
+        <v>20770</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>61074</v>
+        <v>62239</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44641</v>
+        <v>45608</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44931</v>
+        <v>45752</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>246095</v>
+        <v>245839</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>77613</v>
+        <v>79646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>88928</v>
+        <v>89946</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>150580</v>
+        <v>150110</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>131633</v>
+        <v>132579</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>143538</v>
+        <v>142143</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>411980</v>
+        <v>406971</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>76901</v>
+        <v>76674</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>75378</v>
+        <v>74758</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>291574</v>
+        <v>295010</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>117407</v>
+        <v>115900</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>127635</v>
+        <v>130466</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>186623</v>
+        <v>186481</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>183184</v>
+        <v>181916</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>195877</v>
+        <v>190955</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>469528</v>
+        <v>467948</v>
       </c>
     </row>
     <row r="20">
